--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Itgae</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Itgae</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H2">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I2">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J2">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.448134333333333</v>
+        <v>0.1203443333333333</v>
       </c>
       <c r="N2">
-        <v>4.344403</v>
+        <v>0.361033</v>
       </c>
       <c r="O2">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="P2">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="Q2">
-        <v>1.471304965378111</v>
+        <v>0.007155834519111111</v>
       </c>
       <c r="R2">
-        <v>13.241744688403</v>
+        <v>0.06440251067199999</v>
       </c>
       <c r="S2">
-        <v>0.4722324334874626</v>
+        <v>0.02671039658112906</v>
       </c>
       <c r="T2">
-        <v>0.4722324334874627</v>
+        <v>0.02671039658112907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H3">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I3">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J3">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,25 +620,25 @@
         <v>0.188143</v>
       </c>
       <c r="N3">
-        <v>0.564429</v>
+        <v>0.5644290000000001</v>
       </c>
       <c r="O3">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="P3">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="Q3">
-        <v>0.1911533507143333</v>
+        <v>0.01118723363733333</v>
       </c>
       <c r="R3">
-        <v>1.720380156429</v>
+        <v>0.100685102736</v>
       </c>
       <c r="S3">
-        <v>0.06135289019018149</v>
+        <v>0.0417582947594544</v>
       </c>
       <c r="T3">
-        <v>0.0613528901901815</v>
+        <v>0.0417582947594544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.05946133333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.178384</v>
+      </c>
+      <c r="I4">
+        <v>0.1600936236816221</v>
+      </c>
+      <c r="J4">
+        <v>0.1600936236816221</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>1.016000333333333</v>
-      </c>
-      <c r="H4">
-        <v>3.048001</v>
-      </c>
-      <c r="I4">
-        <v>0.7163354752101707</v>
-      </c>
-      <c r="J4">
-        <v>0.7163354752101708</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.2021813333333333</v>
+        <v>0.1259646666666667</v>
       </c>
       <c r="N4">
-        <v>0.606544</v>
+        <v>0.377894</v>
       </c>
       <c r="O4">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681573</v>
       </c>
       <c r="P4">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681574</v>
       </c>
       <c r="Q4">
-        <v>0.2054163020604444</v>
+        <v>0.007490027032888888</v>
       </c>
       <c r="R4">
-        <v>1.848746718544</v>
+        <v>0.067410243296</v>
       </c>
       <c r="S4">
-        <v>0.06593075024053237</v>
+        <v>0.02795782824736017</v>
       </c>
       <c r="T4">
-        <v>0.06593075024053238</v>
+        <v>0.02795782824736018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H5">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I5">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J5">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.358235</v>
+        <v>0.2868536666666666</v>
       </c>
       <c r="N5">
-        <v>1.074705</v>
+        <v>0.8605609999999999</v>
       </c>
       <c r="O5">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072484</v>
       </c>
       <c r="P5">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072485</v>
       </c>
       <c r="Q5">
-        <v>0.3639668794116666</v>
+        <v>0.01705670149155555</v>
       </c>
       <c r="R5">
-        <v>3.275701914705</v>
+        <v>0.153510313424</v>
       </c>
       <c r="S5">
-        <v>0.1168194012919942</v>
+        <v>0.06366710409367843</v>
       </c>
       <c r="T5">
-        <v>0.1168194012919942</v>
+        <v>0.06366710409367844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H6">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.448134333333333</v>
+        <v>0.1203443333333333</v>
       </c>
       <c r="N6">
-        <v>4.344403</v>
+        <v>0.361033</v>
       </c>
       <c r="O6">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="P6">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="Q6">
-        <v>0.08610799830577777</v>
+        <v>0.02684444825588889</v>
       </c>
       <c r="R6">
-        <v>0.7749719847519999</v>
+        <v>0.241600034303</v>
       </c>
       <c r="S6">
-        <v>0.02763736311609725</v>
+        <v>0.1002015707603952</v>
       </c>
       <c r="T6">
-        <v>0.02763736311609725</v>
+        <v>0.1002015707603952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H7">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,25 +868,25 @@
         <v>0.188143</v>
       </c>
       <c r="N7">
-        <v>0.564429</v>
+        <v>0.5644290000000001</v>
       </c>
       <c r="O7">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="P7">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="Q7">
-        <v>0.01118723363733333</v>
+        <v>0.04196786743766667</v>
       </c>
       <c r="R7">
-        <v>0.100685102736</v>
+        <v>0.3777108069390001</v>
       </c>
       <c r="S7">
-        <v>0.003590672694557953</v>
+        <v>0.1566523624785522</v>
       </c>
       <c r="T7">
-        <v>0.003590672694557953</v>
+        <v>0.1566523624785522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H8">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2021813333333333</v>
+        <v>0.1259646666666667</v>
       </c>
       <c r="N8">
-        <v>0.606544</v>
+        <v>0.377894</v>
       </c>
       <c r="O8">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681573</v>
       </c>
       <c r="P8">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681574</v>
       </c>
       <c r="Q8">
-        <v>0.01202197165511111</v>
+        <v>0.02809814041711111</v>
       </c>
       <c r="R8">
-        <v>0.108197744896</v>
+        <v>0.252883263754</v>
       </c>
       <c r="S8">
-        <v>0.003858591565720329</v>
+        <v>0.1048811947410037</v>
       </c>
       <c r="T8">
-        <v>0.003858591565720329</v>
+        <v>0.1048811947410037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H9">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.358235</v>
+        <v>0.2868536666666666</v>
       </c>
       <c r="N9">
-        <v>1.074705</v>
+        <v>0.8605609999999999</v>
       </c>
       <c r="O9">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072484</v>
       </c>
       <c r="P9">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072485</v>
       </c>
       <c r="Q9">
-        <v>0.02130113074666667</v>
+        <v>0.06398663068344443</v>
       </c>
       <c r="R9">
-        <v>0.19171017672</v>
+        <v>0.5758796761509999</v>
       </c>
       <c r="S9">
-        <v>0.006836845552239353</v>
+        <v>0.2388412248607092</v>
       </c>
       <c r="T9">
-        <v>0.006836845552239353</v>
+        <v>0.2388412248607093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H10">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.448134333333333</v>
+        <v>0.1203443333333333</v>
       </c>
       <c r="N10">
-        <v>4.344403</v>
+        <v>0.361033</v>
       </c>
       <c r="O10">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="P10">
-        <v>0.6592336270221868</v>
+        <v>0.1668423511622673</v>
       </c>
       <c r="Q10">
-        <v>0.1702344661321111</v>
+        <v>0.01069752813433333</v>
       </c>
       <c r="R10">
-        <v>1.532110195189</v>
+        <v>0.09627775320899999</v>
       </c>
       <c r="S10">
-        <v>0.05463873098827365</v>
+        <v>0.03993038382074306</v>
       </c>
       <c r="T10">
-        <v>0.05463873098827365</v>
+        <v>0.03993038382074307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H11">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,25 +1116,25 @@
         <v>0.188143</v>
       </c>
       <c r="N11">
-        <v>0.564429</v>
+        <v>0.5644290000000001</v>
       </c>
       <c r="O11">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="P11">
-        <v>0.08564826441435242</v>
+        <v>0.260836714162327</v>
       </c>
       <c r="Q11">
-        <v>0.02211702493633333</v>
+        <v>0.016724219413</v>
       </c>
       <c r="R11">
-        <v>0.199053224427</v>
+        <v>0.150517974717</v>
       </c>
       <c r="S11">
-        <v>0.007098716277698066</v>
+        <v>0.06242605692432047</v>
       </c>
       <c r="T11">
-        <v>0.007098716277698066</v>
+        <v>0.06242605692432047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H12">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2021813333333333</v>
+        <v>0.1259646666666667</v>
       </c>
       <c r="N12">
-        <v>0.606544</v>
+        <v>0.377894</v>
       </c>
       <c r="O12">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681573</v>
       </c>
       <c r="P12">
-        <v>0.09203892941528337</v>
+        <v>0.1746342396681574</v>
       </c>
       <c r="Q12">
-        <v>0.02376729185244444</v>
+        <v>0.01119712518466667</v>
       </c>
       <c r="R12">
-        <v>0.213905626672</v>
+        <v>0.100774126662</v>
       </c>
       <c r="S12">
-        <v>0.007628388629818978</v>
+        <v>0.04179521667979348</v>
       </c>
       <c r="T12">
-        <v>0.007628388629818978</v>
+        <v>0.04179521667979349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H13">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.358235</v>
+        <v>0.2868536666666666</v>
       </c>
       <c r="N13">
-        <v>1.074705</v>
+        <v>0.8605609999999999</v>
       </c>
       <c r="O13">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072484</v>
       </c>
       <c r="P13">
-        <v>0.1630791791481774</v>
+        <v>0.3976866950072485</v>
       </c>
       <c r="Q13">
-        <v>0.04211207660166667</v>
+        <v>0.02549870928366666</v>
       </c>
       <c r="R13">
-        <v>0.379008689415</v>
+        <v>0.229488383553</v>
       </c>
       <c r="S13">
-        <v>0.01351636056478937</v>
+        <v>0.09517836605286073</v>
       </c>
       <c r="T13">
-        <v>0.01351636056478937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.675943</v>
-      </c>
-      <c r="I14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>1.448134333333333</v>
-      </c>
-      <c r="N14">
-        <v>4.344403</v>
-      </c>
-      <c r="O14">
-        <v>0.6592336270221868</v>
-      </c>
-      <c r="P14">
-        <v>0.6592336270221868</v>
-      </c>
-      <c r="Q14">
-        <v>0.3262854218921111</v>
-      </c>
-      <c r="R14">
-        <v>2.936568797029</v>
-      </c>
-      <c r="S14">
-        <v>0.1047250994303532</v>
-      </c>
-      <c r="T14">
-        <v>0.1047250994303532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.675943</v>
-      </c>
-      <c r="I15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.188143</v>
-      </c>
-      <c r="N15">
-        <v>0.564429</v>
-      </c>
-      <c r="O15">
-        <v>0.08564826441435242</v>
-      </c>
-      <c r="P15">
-        <v>0.08564826441435242</v>
-      </c>
-      <c r="Q15">
-        <v>0.04239131461633332</v>
-      </c>
-      <c r="R15">
-        <v>0.3815218315469999</v>
-      </c>
-      <c r="S15">
-        <v>0.01360598525191489</v>
-      </c>
-      <c r="T15">
-        <v>0.0136059852519149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.675943</v>
-      </c>
-      <c r="I16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2021813333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.606544</v>
-      </c>
-      <c r="O16">
-        <v>0.09203892941528337</v>
-      </c>
-      <c r="P16">
-        <v>0.09203892941528337</v>
-      </c>
-      <c r="Q16">
-        <v>0.04555435233244444</v>
-      </c>
-      <c r="R16">
-        <v>0.4099891709919999</v>
-      </c>
-      <c r="S16">
-        <v>0.01462119897921168</v>
-      </c>
-      <c r="T16">
-        <v>0.01462119897921168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.675943</v>
-      </c>
-      <c r="I17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.358235</v>
-      </c>
-      <c r="N17">
-        <v>1.074705</v>
-      </c>
-      <c r="O17">
-        <v>0.1630791791481774</v>
-      </c>
-      <c r="P17">
-        <v>0.1630791791481774</v>
-      </c>
-      <c r="Q17">
-        <v>0.08071548020166666</v>
-      </c>
-      <c r="R17">
-        <v>0.7264393218149999</v>
-      </c>
-      <c r="S17">
-        <v>0.02590657173915444</v>
-      </c>
-      <c r="T17">
-        <v>0.02590657173915444</v>
+        <v>0.09517836605286074</v>
       </c>
     </row>
   </sheetData>
